--- a/create.xlsx
+++ b/create.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
   <si>
     <t>partition</t>
   </si>
@@ -77,6 +77,12 @@
   </si>
   <si>
     <t>snat_pool</t>
+  </si>
+  <si>
+    <t>irules</t>
+  </si>
+  <si>
+    <t>tetstt</t>
   </si>
   <si>
     <t>VS_Test_2</t>
@@ -510,6 +516,9 @@
       <c r="K1" t="s">
         <v>20</v>
       </c>
+      <c r="L1" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
@@ -531,7 +540,7 @@
         <v>11</v>
       </c>
       <c r="G2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H2" t="s">
         <v>15</v>
@@ -544,6 +553,9 @@
       </c>
       <c r="K2" t="s">
         <v>20</v>
+      </c>
+      <c r="L2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="3">
@@ -551,10 +563,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>13</v>
@@ -566,18 +578,21 @@
         <v>11</v>
       </c>
       <c r="G3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K3" t="s">
+        <v>13</v>
+      </c>
+      <c r="L3" t="s">
         <v>13</v>
       </c>
     </row>
@@ -586,10 +601,10 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D4" t="s">
         <v>13</v>
@@ -601,19 +616,22 @@
         <v>11</v>
       </c>
       <c r="G4" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="J4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K4" t="s">
         <v>13</v>
+      </c>
+      <c r="L4" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="5">
@@ -621,10 +639,10 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D5" t="s">
         <v>13</v>
@@ -636,18 +654,21 @@
         <v>11</v>
       </c>
       <c r="G5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="J5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K5" t="s">
+        <v>13</v>
+      </c>
+      <c r="L5" t="s">
         <v>13</v>
       </c>
     </row>
@@ -656,10 +677,10 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C6" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D6" t="s">
         <v>13</v>
@@ -674,15 +695,18 @@
         <v>11</v>
       </c>
       <c r="H6" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I6" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="J6" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K6" t="s">
+        <v>13</v>
+      </c>
+      <c r="L6" t="s">
         <v>13</v>
       </c>
     </row>
@@ -691,10 +715,10 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D7" t="s">
         <v>13</v>
@@ -706,18 +730,21 @@
         <v>11</v>
       </c>
       <c r="G7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L7" t="s">
         <v>13</v>
       </c>
     </row>
@@ -726,10 +753,10 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C8" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D8" t="s">
         <v>13</v>
@@ -741,18 +768,21 @@
         <v>11</v>
       </c>
       <c r="G8" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H8" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="I8" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="J8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K8" t="s">
+        <v>13</v>
+      </c>
+      <c r="L8" t="s">
         <v>13</v>
       </c>
     </row>
@@ -761,33 +791,36 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C9" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D9" t="s">
         <v>13</v>
       </c>
       <c r="E9" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F9" t="s">
         <v>11</v>
       </c>
       <c r="G9" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H9" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="I9" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="J9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K9" t="s">
+        <v>13</v>
+      </c>
+      <c r="L9" t="s">
         <v>13</v>
       </c>
     </row>

--- a/create.xlsx
+++ b/create.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
   <si>
     <t>partition</t>
   </si>
@@ -85,6 +85,9 @@
     <t>tetstt</t>
   </si>
   <si>
+    <t>monitors</t>
+  </si>
+  <si>
     <t>VS_Test_2</t>
   </si>
   <si>
@@ -173,6 +176,12 @@
   </si>
   <si>
     <t>fastL4</t>
+  </si>
+  <si>
+    <t>http</t>
+  </si>
+  <si>
+    <t>gateway_icmp</t>
   </si>
 </sst>
 </file>
@@ -519,6 +528,9 @@
       <c r="L1" t="s">
         <v>21</v>
       </c>
+      <c r="M1" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
@@ -540,7 +552,7 @@
         <v>11</v>
       </c>
       <c r="G2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H2" t="s">
         <v>15</v>
@@ -556,6 +568,9 @@
       </c>
       <c r="L2" t="s">
         <v>22</v>
+      </c>
+      <c r="M2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="3">
@@ -563,10 +578,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>13</v>
@@ -578,22 +593,25 @@
         <v>11</v>
       </c>
       <c r="G3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K3" t="s">
         <v>13</v>
       </c>
       <c r="L3" t="s">
         <v>13</v>
+      </c>
+      <c r="M3" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="4">
@@ -601,10 +619,10 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D4" t="s">
         <v>13</v>
@@ -616,22 +634,25 @@
         <v>11</v>
       </c>
       <c r="G4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K4" t="s">
         <v>13</v>
       </c>
       <c r="L4" t="s">
         <v>22</v>
+      </c>
+      <c r="M4" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="5">
@@ -639,10 +660,10 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D5" t="s">
         <v>13</v>
@@ -654,22 +675,25 @@
         <v>11</v>
       </c>
       <c r="G5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K5" t="s">
         <v>13</v>
       </c>
       <c r="L5" t="s">
         <v>13</v>
+      </c>
+      <c r="M5" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="6">
@@ -677,10 +701,10 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D6" t="s">
         <v>13</v>
@@ -695,19 +719,22 @@
         <v>11</v>
       </c>
       <c r="H6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K6" t="s">
         <v>13</v>
       </c>
       <c r="L6" t="s">
         <v>13</v>
+      </c>
+      <c r="M6" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="7">
@@ -715,10 +742,10 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D7" t="s">
         <v>13</v>
@@ -730,22 +757,25 @@
         <v>11</v>
       </c>
       <c r="G7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K7" t="s">
         <v>13</v>
       </c>
       <c r="L7" t="s">
         <v>13</v>
+      </c>
+      <c r="M7" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="8">
@@ -753,10 +783,10 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D8" t="s">
         <v>13</v>
@@ -768,22 +798,25 @@
         <v>11</v>
       </c>
       <c r="G8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K8" t="s">
         <v>13</v>
       </c>
       <c r="L8" t="s">
         <v>13</v>
+      </c>
+      <c r="M8" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="9">
@@ -791,37 +824,40 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D9" t="s">
         <v>13</v>
       </c>
       <c r="E9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F9" t="s">
         <v>11</v>
       </c>
       <c r="G9" t="s">
+        <v>52</v>
+      </c>
+      <c r="H9" t="s">
         <v>51</v>
       </c>
-      <c r="H9" t="s">
-        <v>50</v>
-      </c>
       <c r="I9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K9" t="s">
         <v>13</v>
       </c>
       <c r="L9" t="s">
         <v>13</v>
+      </c>
+      <c r="M9" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
